--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC78E6F-82B7-4CE3-AEC6-31C1C06DEE95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B7AF4-14E8-4FF3-8435-7EB13CB53053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9619,10 +9619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>융합전공, 융합부전공, 연계전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상담심리교육전공(평캠)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9664,6 +9660,10 @@
   </si>
   <si>
     <t>AI반도체융합전공(평캠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공, 융합부전공, 연계전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10057,7 +10057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -44914,7 +44916,7 @@
     </row>
     <row r="1292" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1292" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1292" s="5" t="s">
         <v>3176</v>
@@ -44941,7 +44943,7 @@
     </row>
     <row r="1293" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1293" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1293" s="5" t="s">
         <v>3176</v>
@@ -44968,7 +44970,7 @@
     </row>
     <row r="1294" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1294" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1294" s="5" t="s">
         <v>3176</v>
@@ -44995,7 +44997,7 @@
     </row>
     <row r="1295" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1295" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1295" s="5" t="s">
         <v>3176</v>
@@ -45022,7 +45024,7 @@
     </row>
     <row r="1296" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1296" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1296" s="5" t="s">
         <v>3176</v>
@@ -45049,7 +45051,7 @@
     </row>
     <row r="1297" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1297" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1297" s="5" t="s">
         <v>3176</v>
@@ -45076,7 +45078,7 @@
     </row>
     <row r="1298" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1298" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1298" s="5" t="s">
         <v>3176</v>
@@ -45103,7 +45105,7 @@
     </row>
     <row r="1299" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1299" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1299" s="5" t="s">
         <v>3176</v>
@@ -45130,7 +45132,7 @@
     </row>
     <row r="1300" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1300" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1300" s="5" t="s">
         <v>3176</v>
@@ -45157,7 +45159,7 @@
     </row>
     <row r="1301" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1301" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1301" s="5" t="s">
         <v>3176</v>
@@ -45184,7 +45186,7 @@
     </row>
     <row r="1302" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1302" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1302" s="5" t="s">
         <v>3176</v>
@@ -45211,7 +45213,7 @@
     </row>
     <row r="1303" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1303" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1303" s="5" t="s">
         <v>3176</v>
@@ -45238,7 +45240,7 @@
     </row>
     <row r="1304" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1304" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1304" s="5" t="s">
         <v>3176</v>
@@ -45265,7 +45267,7 @@
     </row>
     <row r="1305" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1305" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1305" s="5" t="s">
         <v>3176</v>
@@ -45292,7 +45294,7 @@
     </row>
     <row r="1306" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1306" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1306" s="5" t="s">
         <v>3176</v>
@@ -45319,7 +45321,7 @@
     </row>
     <row r="1307" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1307" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1307" s="5" t="s">
         <v>3176</v>
@@ -45346,7 +45348,7 @@
     </row>
     <row r="1308" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1308" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1308" s="5" t="s">
         <v>3176</v>
@@ -45373,7 +45375,7 @@
     </row>
     <row r="1309" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1309" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1309" s="5" t="s">
         <v>3176</v>
@@ -45400,7 +45402,7 @@
     </row>
     <row r="1310" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1310" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1310" s="5" t="s">
         <v>3176</v>
@@ -45427,7 +45429,7 @@
     </row>
     <row r="1311" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1311" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1311" s="5" t="s">
         <v>3176</v>
@@ -45454,7 +45456,7 @@
     </row>
     <row r="1312" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1312" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1312" s="5" t="s">
         <v>3176</v>
@@ -45481,7 +45483,7 @@
     </row>
     <row r="1313" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1313" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1313" s="5" t="s">
         <v>3176</v>
@@ -45508,7 +45510,7 @@
     </row>
     <row r="1314" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1314" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1314" s="5" t="s">
         <v>3176</v>
@@ -45535,7 +45537,7 @@
     </row>
     <row r="1315" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1315" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1315" s="5" t="s">
         <v>3176</v>
@@ -45562,7 +45564,7 @@
     </row>
     <row r="1316" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1316" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1316" s="5" t="s">
         <v>3176</v>
@@ -45589,7 +45591,7 @@
     </row>
     <row r="1317" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1317" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1317" s="5" t="s">
         <v>3176</v>
@@ -45616,7 +45618,7 @@
     </row>
     <row r="1318" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1318" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1318" s="5" t="s">
         <v>3176</v>
@@ -45643,7 +45645,7 @@
     </row>
     <row r="1319" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1319" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1319" s="5" t="s">
         <v>3176</v>
@@ -45670,7 +45672,7 @@
     </row>
     <row r="1320" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1320" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1320" s="5" t="s">
         <v>3176</v>
@@ -45697,7 +45699,7 @@
     </row>
     <row r="1321" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1321" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1321" s="5" t="s">
         <v>3176</v>
@@ -45724,7 +45726,7 @@
     </row>
     <row r="1322" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1322" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1322" s="5" t="s">
         <v>3176</v>
@@ -45751,7 +45753,7 @@
     </row>
     <row r="1323" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1323" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1323" s="5" t="s">
         <v>3176</v>
@@ -45778,7 +45780,7 @@
     </row>
     <row r="1324" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1324" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1324" s="5" t="s">
         <v>3176</v>
@@ -45805,7 +45807,7 @@
     </row>
     <row r="1325" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1325" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1325" s="5" t="s">
         <v>3176</v>
@@ -45832,7 +45834,7 @@
     </row>
     <row r="1326" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1326" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1326" s="5" t="s">
         <v>3176</v>
@@ -45859,7 +45861,7 @@
     </row>
     <row r="1327" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1327" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1327" s="5" t="s">
         <v>3176</v>
@@ -45886,7 +45888,7 @@
     </row>
     <row r="1328" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1328" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1328" s="5" t="s">
         <v>3176</v>
@@ -45913,7 +45915,7 @@
     </row>
     <row r="1329" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1329" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1329" s="5" t="s">
         <v>3176</v>
@@ -45940,7 +45942,7 @@
     </row>
     <row r="1330" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1330" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1330" s="5" t="s">
         <v>3176</v>
@@ -45965,7 +45967,7 @@
     </row>
     <row r="1331" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1331" s="8" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1331" s="5" t="s">
         <v>3176</v>
@@ -45992,7 +45994,7 @@
     </row>
     <row r="1332" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1332" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1332" s="5" t="s">
         <v>3176</v>
@@ -46019,7 +46021,7 @@
     </row>
     <row r="1333" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1333" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1333" s="5" t="s">
         <v>3176</v>
@@ -46046,7 +46048,7 @@
     </row>
     <row r="1334" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1334" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1334" s="5" t="s">
         <v>3176</v>
@@ -46073,7 +46075,7 @@
     </row>
     <row r="1335" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1335" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1335" s="5" t="s">
         <v>3176</v>
@@ -46100,7 +46102,7 @@
     </row>
     <row r="1336" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1336" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1336" s="5" t="s">
         <v>3176</v>
@@ -46127,7 +46129,7 @@
     </row>
     <row r="1337" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1337" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1337" s="5" t="s">
         <v>3176</v>
@@ -46154,7 +46156,7 @@
     </row>
     <row r="1338" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1338" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1338" s="5" t="s">
         <v>3176</v>
@@ -46181,7 +46183,7 @@
     </row>
     <row r="1339" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1339" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1339" s="5" t="s">
         <v>3176</v>
@@ -46208,7 +46210,7 @@
     </row>
     <row r="1340" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1340" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1340" s="5" t="s">
         <v>3176</v>
@@ -46235,7 +46237,7 @@
     </row>
     <row r="1341" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1341" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1341" s="5" t="s">
         <v>3176</v>
@@ -46262,7 +46264,7 @@
     </row>
     <row r="1342" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1342" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1342" s="5" t="s">
         <v>3176</v>
@@ -46289,7 +46291,7 @@
     </row>
     <row r="1343" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1343" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1343" s="5" t="s">
         <v>3176</v>
@@ -46316,7 +46318,7 @@
     </row>
     <row r="1344" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1344" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1344" s="5" t="s">
         <v>3176</v>
@@ -46343,7 +46345,7 @@
     </row>
     <row r="1345" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1345" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1345" s="5" t="s">
         <v>3176</v>
@@ -46370,7 +46372,7 @@
     </row>
     <row r="1346" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1346" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1346" s="5" t="s">
         <v>3176</v>
@@ -46397,7 +46399,7 @@
     </row>
     <row r="1347" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1347" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1347" s="5" t="s">
         <v>3176</v>
@@ -46424,7 +46426,7 @@
     </row>
     <row r="1348" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1348" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1348" s="5" t="s">
         <v>3176</v>
@@ -46451,7 +46453,7 @@
     </row>
     <row r="1349" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1349" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1349" s="5" t="s">
         <v>3176</v>
@@ -46478,7 +46480,7 @@
     </row>
     <row r="1350" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1350" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1350" s="5" t="s">
         <v>3176</v>
@@ -46505,7 +46507,7 @@
     </row>
     <row r="1351" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1351" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1351" s="5" t="s">
         <v>3176</v>
@@ -46532,7 +46534,7 @@
     </row>
     <row r="1352" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1352" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1352" s="5" t="s">
         <v>3176</v>
@@ -46559,7 +46561,7 @@
     </row>
     <row r="1353" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1353" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1353" s="5" t="s">
         <v>3176</v>
@@ -46586,7 +46588,7 @@
     </row>
     <row r="1354" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1354" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1354" s="5" t="s">
         <v>3176</v>
@@ -46613,7 +46615,7 @@
     </row>
     <row r="1355" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1355" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1355" s="5" t="s">
         <v>3176</v>
@@ -46640,7 +46642,7 @@
     </row>
     <row r="1356" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1356" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1356" s="5" t="s">
         <v>3176</v>
@@ -46667,7 +46669,7 @@
     </row>
     <row r="1357" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1357" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1357" s="5" t="s">
         <v>3176</v>
@@ -46694,7 +46696,7 @@
     </row>
     <row r="1358" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1358" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1358" s="5" t="s">
         <v>3176</v>
@@ -46721,7 +46723,7 @@
     </row>
     <row r="1359" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1359" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1359" s="5" t="s">
         <v>3176</v>
@@ -46748,7 +46750,7 @@
     </row>
     <row r="1360" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1360" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1360" s="5" t="s">
         <v>3176</v>
@@ -46775,7 +46777,7 @@
     </row>
     <row r="1361" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1361" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1361" s="5" t="s">
         <v>3176</v>
@@ -46802,7 +46804,7 @@
     </row>
     <row r="1362" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1362" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1362" s="5" t="s">
         <v>3176</v>
@@ -46829,7 +46831,7 @@
     </row>
     <row r="1363" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1363" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1363" s="5" t="s">
         <v>3176</v>
@@ -46856,7 +46858,7 @@
     </row>
     <row r="1364" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1364" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1364" s="5" t="s">
         <v>3176</v>
@@ -46883,7 +46885,7 @@
     </row>
     <row r="1365" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1365" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1365" s="5" t="s">
         <v>3176</v>
@@ -46910,7 +46912,7 @@
     </row>
     <row r="1366" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1366" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1366" s="5" t="s">
         <v>3176</v>
@@ -46937,7 +46939,7 @@
     </row>
     <row r="1367" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1367" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1367" s="5" t="s">
         <v>3176</v>
@@ -46964,7 +46966,7 @@
     </row>
     <row r="1368" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1368" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1368" s="5" t="s">
         <v>3176</v>
@@ -46991,7 +46993,7 @@
     </row>
     <row r="1369" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1369" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1369" s="5" t="s">
         <v>3176</v>
@@ -47018,7 +47020,7 @@
     </row>
     <row r="1370" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1370" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1370" s="5" t="s">
         <v>3176</v>
@@ -47045,7 +47047,7 @@
     </row>
     <row r="1371" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1371" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1371" s="5" t="s">
         <v>3176</v>
@@ -47072,7 +47074,7 @@
     </row>
     <row r="1372" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1372" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1372" s="5" t="s">
         <v>3176</v>
@@ -47099,7 +47101,7 @@
     </row>
     <row r="1373" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1373" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1373" s="5" t="s">
         <v>3176</v>
@@ -47126,7 +47128,7 @@
     </row>
     <row r="1374" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1374" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1374" s="5" t="s">
         <v>3176</v>
@@ -47153,7 +47155,7 @@
     </row>
     <row r="1375" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1375" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1375" s="5" t="s">
         <v>3176</v>
@@ -47180,7 +47182,7 @@
     </row>
     <row r="1376" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1376" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1376" s="5" t="s">
         <v>3176</v>
@@ -47207,7 +47209,7 @@
     </row>
     <row r="1377" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1377" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1377" s="5" t="s">
         <v>3176</v>
@@ -47234,7 +47236,7 @@
     </row>
     <row r="1378" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1378" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1378" s="5" t="s">
         <v>3176</v>
@@ -47261,7 +47263,7 @@
     </row>
     <row r="1379" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1379" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1379" s="5" t="s">
         <v>3176</v>
@@ -47288,7 +47290,7 @@
     </row>
     <row r="1380" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1380" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1380" s="5" t="s">
         <v>3176</v>
@@ -47315,7 +47317,7 @@
     </row>
     <row r="1381" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1381" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1381" s="5" t="s">
         <v>3176</v>
@@ -47342,7 +47344,7 @@
     </row>
     <row r="1382" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1382" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1382" s="5" t="s">
         <v>3176</v>
@@ -47369,7 +47371,7 @@
     </row>
     <row r="1383" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1383" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1383" s="5" t="s">
         <v>3176</v>
@@ -47396,7 +47398,7 @@
     </row>
     <row r="1384" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1384" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1384" s="5" t="s">
         <v>3176</v>
@@ -47423,7 +47425,7 @@
     </row>
     <row r="1385" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1385" s="8" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1385" s="5" t="s">
         <v>3176</v>
@@ -47450,7 +47452,7 @@
     </row>
     <row r="1386" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1386" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1386" s="5" t="s">
         <v>3176</v>
@@ -47477,7 +47479,7 @@
     </row>
     <row r="1387" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1387" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1387" s="5" t="s">
         <v>3176</v>
@@ -47504,7 +47506,7 @@
     </row>
     <row r="1388" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1388" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1388" s="5" t="s">
         <v>3176</v>
@@ -47531,7 +47533,7 @@
     </row>
     <row r="1389" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1389" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1389" s="5" t="s">
         <v>3176</v>
@@ -47558,7 +47560,7 @@
     </row>
     <row r="1390" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1390" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1390" s="5" t="s">
         <v>3176</v>
@@ -47585,7 +47587,7 @@
     </row>
     <row r="1391" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1391" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1391" s="5" t="s">
         <v>3176</v>
@@ -47612,7 +47614,7 @@
     </row>
     <row r="1392" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1392" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1392" s="5" t="s">
         <v>3176</v>
@@ -47639,7 +47641,7 @@
     </row>
     <row r="1393" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1393" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1393" s="5" t="s">
         <v>3176</v>
@@ -47666,7 +47668,7 @@
     </row>
     <row r="1394" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1394" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1394" s="5" t="s">
         <v>3176</v>
@@ -47693,7 +47695,7 @@
     </row>
     <row r="1395" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1395" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1395" s="5" t="s">
         <v>3176</v>
@@ -47720,7 +47722,7 @@
     </row>
     <row r="1396" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1396" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1396" s="5" t="s">
         <v>3176</v>
@@ -47747,7 +47749,7 @@
     </row>
     <row r="1397" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1397" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1397" s="5" t="s">
         <v>3176</v>
@@ -47774,7 +47776,7 @@
     </row>
     <row r="1398" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1398" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1398" s="5" t="s">
         <v>3176</v>
@@ -47801,7 +47803,7 @@
     </row>
     <row r="1399" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1399" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1399" s="5" t="s">
         <v>3176</v>
@@ -47828,7 +47830,7 @@
     </row>
     <row r="1400" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1400" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1400" s="5" t="s">
         <v>3176</v>
@@ -47855,7 +47857,7 @@
     </row>
     <row r="1401" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1401" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1401" s="5" t="s">
         <v>3176</v>
@@ -47882,7 +47884,7 @@
     </row>
     <row r="1402" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1402" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1402" s="5" t="s">
         <v>3176</v>
@@ -47909,7 +47911,7 @@
     </row>
     <row r="1403" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1403" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1403" s="5" t="s">
         <v>3176</v>
@@ -47936,7 +47938,7 @@
     </row>
     <row r="1404" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1404" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1404" s="5" t="s">
         <v>3176</v>
@@ -47963,7 +47965,7 @@
     </row>
     <row r="1405" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1405" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1405" s="5" t="s">
         <v>3176</v>
@@ -47990,7 +47992,7 @@
     </row>
     <row r="1406" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1406" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1406" s="5" t="s">
         <v>3176</v>
@@ -48017,7 +48019,7 @@
     </row>
     <row r="1407" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1407" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1407" s="5" t="s">
         <v>3176</v>
@@ -48044,7 +48046,7 @@
     </row>
     <row r="1408" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1408" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1408" s="5" t="s">
         <v>3176</v>
@@ -48071,7 +48073,7 @@
     </row>
     <row r="1409" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1409" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1409" s="5" t="s">
         <v>3176</v>
@@ -48098,7 +48100,7 @@
     </row>
     <row r="1410" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1410" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1410" s="5" t="s">
         <v>3176</v>
@@ -48125,7 +48127,7 @@
     </row>
     <row r="1411" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1411" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1411" s="5" t="s">
         <v>3176</v>
@@ -48152,7 +48154,7 @@
     </row>
     <row r="1412" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1412" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1412" s="5" t="s">
         <v>3176</v>
@@ -48179,7 +48181,7 @@
     </row>
     <row r="1413" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1413" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1413" s="5" t="s">
         <v>3176</v>
@@ -48206,7 +48208,7 @@
     </row>
     <row r="1414" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1414" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1414" s="5" t="s">
         <v>3176</v>
@@ -48233,7 +48235,7 @@
     </row>
     <row r="1415" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1415" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1415" s="5" t="s">
         <v>3176</v>
@@ -48260,7 +48262,7 @@
     </row>
     <row r="1416" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1416" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1416" s="5" t="s">
         <v>3176</v>
@@ -48287,7 +48289,7 @@
     </row>
     <row r="1417" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1417" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1417" s="5" t="s">
         <v>3176</v>
@@ -48314,7 +48316,7 @@
     </row>
     <row r="1418" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1418" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1418" s="5" t="s">
         <v>3176</v>
@@ -48341,7 +48343,7 @@
     </row>
     <row r="1419" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1419" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1419" s="5" t="s">
         <v>3176</v>
@@ -48368,7 +48370,7 @@
     </row>
     <row r="1420" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1420" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1420" s="5" t="s">
         <v>3176</v>
@@ -48395,7 +48397,7 @@
     </row>
     <row r="1421" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1421" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1421" s="5" t="s">
         <v>3176</v>
@@ -48422,7 +48424,7 @@
     </row>
     <row r="1422" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1422" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1422" s="5" t="s">
         <v>3176</v>
@@ -48449,7 +48451,7 @@
     </row>
     <row r="1423" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1423" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1423" s="5" t="s">
         <v>3176</v>
@@ -48476,7 +48478,7 @@
     </row>
     <row r="1424" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1424" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1424" s="5" t="s">
         <v>3176</v>
@@ -48503,7 +48505,7 @@
     </row>
     <row r="1425" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1425" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1425" s="5" t="s">
         <v>3176</v>
@@ -48530,7 +48532,7 @@
     </row>
     <row r="1426" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1426" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1426" s="5" t="s">
         <v>3176</v>
@@ -48557,7 +48559,7 @@
     </row>
     <row r="1427" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1427" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1427" s="5" t="s">
         <v>3176</v>
@@ -48584,7 +48586,7 @@
     </row>
     <row r="1428" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1428" s="8" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1428" s="5" t="s">
         <v>3176</v>
@@ -48611,7 +48613,7 @@
     </row>
     <row r="1429" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1429" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1429" s="5" t="s">
         <v>3176</v>
@@ -48638,7 +48640,7 @@
     </row>
     <row r="1430" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1430" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1430" s="5" t="s">
         <v>3176</v>
@@ -48665,7 +48667,7 @@
     </row>
     <row r="1431" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1431" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1431" s="5" t="s">
         <v>3176</v>
@@ -48692,7 +48694,7 @@
     </row>
     <row r="1432" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1432" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1432" s="5" t="s">
         <v>3176</v>
@@ -48719,7 +48721,7 @@
     </row>
     <row r="1433" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1433" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1433" s="5" t="s">
         <v>3176</v>
@@ -48746,7 +48748,7 @@
     </row>
     <row r="1434" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1434" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1434" s="5" t="s">
         <v>3176</v>
@@ -48773,7 +48775,7 @@
     </row>
     <row r="1435" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1435" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1435" s="5" t="s">
         <v>3176</v>
@@ -48800,7 +48802,7 @@
     </row>
     <row r="1436" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1436" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1436" s="5" t="s">
         <v>3176</v>
@@ -48827,7 +48829,7 @@
     </row>
     <row r="1437" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1437" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1437" s="5" t="s">
         <v>3176</v>
@@ -48854,7 +48856,7 @@
     </row>
     <row r="1438" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1438" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1438" s="5" t="s">
         <v>3176</v>
@@ -48881,7 +48883,7 @@
     </row>
     <row r="1439" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1439" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1439" s="5" t="s">
         <v>3176</v>
@@ -48908,7 +48910,7 @@
     </row>
     <row r="1440" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1440" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1440" s="5" t="s">
         <v>3176</v>
@@ -48935,7 +48937,7 @@
     </row>
     <row r="1441" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1441" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1441" s="5" t="s">
         <v>3176</v>
@@ -48962,7 +48964,7 @@
     </row>
     <row r="1442" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1442" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1442" s="5" t="s">
         <v>3176</v>
@@ -48989,7 +48991,7 @@
     </row>
     <row r="1443" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1443" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1443" s="5" t="s">
         <v>3176</v>
@@ -49016,7 +49018,7 @@
     </row>
     <row r="1444" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1444" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1444" s="5" t="s">
         <v>3176</v>
@@ -49043,7 +49045,7 @@
     </row>
     <row r="1445" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1445" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1445" s="5" t="s">
         <v>3176</v>
@@ -49070,7 +49072,7 @@
     </row>
     <row r="1446" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1446" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1446" s="5" t="s">
         <v>3176</v>
@@ -49097,7 +49099,7 @@
     </row>
     <row r="1447" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1447" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1447" s="5" t="s">
         <v>3176</v>
@@ -49124,7 +49126,7 @@
     </row>
     <row r="1448" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1448" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1448" s="5" t="s">
         <v>3176</v>
@@ -49151,7 +49153,7 @@
     </row>
     <row r="1449" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1449" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1449" s="5" t="s">
         <v>3176</v>
@@ -49178,7 +49180,7 @@
     </row>
     <row r="1450" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1450" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1450" s="5" t="s">
         <v>3176</v>
@@ -49205,7 +49207,7 @@
     </row>
     <row r="1451" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1451" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1451" s="5" t="s">
         <v>3176</v>
@@ -49232,7 +49234,7 @@
     </row>
     <row r="1452" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1452" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1452" s="5" t="s">
         <v>3176</v>
@@ -49259,7 +49261,7 @@
     </row>
     <row r="1453" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1453" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1453" s="5" t="s">
         <v>3176</v>
@@ -49286,7 +49288,7 @@
     </row>
     <row r="1454" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1454" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1454" s="5" t="s">
         <v>3176</v>
@@ -49311,7 +49313,7 @@
     </row>
     <row r="1455" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1455" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1455" s="5" t="s">
         <v>3176</v>
@@ -49338,7 +49340,7 @@
     </row>
     <row r="1456" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1456" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1456" s="5" t="s">
         <v>3176</v>
@@ -49365,7 +49367,7 @@
     </row>
     <row r="1457" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1457" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1457" s="5" t="s">
         <v>3176</v>
@@ -49392,7 +49394,7 @@
     </row>
     <row r="1458" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1458" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1458" s="5" t="s">
         <v>3176</v>
@@ -49419,7 +49421,7 @@
     </row>
     <row r="1459" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1459" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1459" s="5" t="s">
         <v>3176</v>
@@ -49446,7 +49448,7 @@
     </row>
     <row r="1460" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1460" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1460" s="5" t="s">
         <v>3176</v>
@@ -49473,7 +49475,7 @@
     </row>
     <row r="1461" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1461" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1461" s="5" t="s">
         <v>3176</v>
@@ -49500,7 +49502,7 @@
     </row>
     <row r="1462" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1462" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1462" s="5" t="s">
         <v>3176</v>
@@ -49527,7 +49529,7 @@
     </row>
     <row r="1463" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1463" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1463" s="5" t="s">
         <v>3176</v>
@@ -49554,7 +49556,7 @@
     </row>
     <row r="1464" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1464" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1464" s="5" t="s">
         <v>3176</v>
@@ -49581,7 +49583,7 @@
     </row>
     <row r="1465" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1465" s="8" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B1465" s="5" t="s">
         <v>3176</v>
@@ -49608,7 +49610,7 @@
     </row>
     <row r="1466" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1466" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1466" s="5" t="s">
         <v>3176</v>
@@ -49635,7 +49637,7 @@
     </row>
     <row r="1467" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1467" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1467" s="5" t="s">
         <v>3176</v>
@@ -49662,7 +49664,7 @@
     </row>
     <row r="1468" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1468" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1468" s="5" t="s">
         <v>3176</v>
@@ -49689,7 +49691,7 @@
     </row>
     <row r="1469" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1469" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1469" s="5" t="s">
         <v>3176</v>
@@ -49716,7 +49718,7 @@
     </row>
     <row r="1470" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1470" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1470" s="5" t="s">
         <v>3176</v>
@@ -49743,7 +49745,7 @@
     </row>
     <row r="1471" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1471" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1471" s="5" t="s">
         <v>3176</v>
@@ -49770,7 +49772,7 @@
     </row>
     <row r="1472" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1472" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1472" s="5" t="s">
         <v>3176</v>
@@ -49797,7 +49799,7 @@
     </row>
     <row r="1473" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1473" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1473" s="5" t="s">
         <v>3176</v>
@@ -49824,7 +49826,7 @@
     </row>
     <row r="1474" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1474" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1474" s="5" t="s">
         <v>3176</v>
@@ -49851,7 +49853,7 @@
     </row>
     <row r="1475" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1475" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1475" s="5" t="s">
         <v>3176</v>
@@ -49878,7 +49880,7 @@
     </row>
     <row r="1476" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1476" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1476" s="5" t="s">
         <v>3176</v>
@@ -49905,7 +49907,7 @@
     </row>
     <row r="1477" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1477" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1477" s="5" t="s">
         <v>3176</v>
@@ -49932,7 +49934,7 @@
     </row>
     <row r="1478" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1478" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1478" s="5" t="s">
         <v>3176</v>
@@ -49959,7 +49961,7 @@
     </row>
     <row r="1479" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1479" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1479" s="5" t="s">
         <v>3176</v>
@@ -49986,7 +49988,7 @@
     </row>
     <row r="1480" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1480" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1480" s="5" t="s">
         <v>3176</v>
@@ -50013,7 +50015,7 @@
     </row>
     <row r="1481" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1481" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1481" s="5" t="s">
         <v>3176</v>
@@ -50040,7 +50042,7 @@
     </row>
     <row r="1482" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1482" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1482" s="5" t="s">
         <v>3176</v>
@@ -50067,7 +50069,7 @@
     </row>
     <row r="1483" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1483" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1483" s="5" t="s">
         <v>3176</v>
@@ -50094,7 +50096,7 @@
     </row>
     <row r="1484" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1484" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1484" s="5" t="s">
         <v>3176</v>
@@ -50121,7 +50123,7 @@
     </row>
     <row r="1485" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1485" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1485" s="5" t="s">
         <v>3176</v>
@@ -50148,7 +50150,7 @@
     </row>
     <row r="1486" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1486" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1486" s="5" t="s">
         <v>3176</v>
@@ -50175,7 +50177,7 @@
     </row>
     <row r="1487" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1487" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1487" s="5" t="s">
         <v>3176</v>
@@ -50202,7 +50204,7 @@
     </row>
     <row r="1488" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1488" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1488" s="5" t="s">
         <v>3176</v>
@@ -50229,7 +50231,7 @@
     </row>
     <row r="1489" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1489" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1489" s="5" t="s">
         <v>3176</v>
@@ -50254,7 +50256,7 @@
     </row>
     <row r="1490" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1490" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1490" s="5" t="s">
         <v>3176</v>
@@ -50281,7 +50283,7 @@
     </row>
     <row r="1491" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1491" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1491" s="5" t="s">
         <v>3176</v>
@@ -50308,7 +50310,7 @@
     </row>
     <row r="1492" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1492" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1492" s="5" t="s">
         <v>3176</v>
@@ -50335,7 +50337,7 @@
     </row>
     <row r="1493" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1493" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1493" s="5" t="s">
         <v>3176</v>
@@ -50362,7 +50364,7 @@
     </row>
     <row r="1494" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1494" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1494" s="5" t="s">
         <v>3176</v>
@@ -50389,7 +50391,7 @@
     </row>
     <row r="1495" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1495" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1495" s="5" t="s">
         <v>3176</v>
@@ -50416,7 +50418,7 @@
     </row>
     <row r="1496" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1496" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1496" s="5" t="s">
         <v>3176</v>
@@ -50443,7 +50445,7 @@
     </row>
     <row r="1497" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1497" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1497" s="5" t="s">
         <v>3176</v>
@@ -50470,7 +50472,7 @@
     </row>
     <row r="1498" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1498" s="8" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1498" s="5" t="s">
         <v>3176</v>
@@ -50497,7 +50499,7 @@
     </row>
     <row r="1499" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1499" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1499" s="5" t="s">
         <v>3176</v>
@@ -50524,7 +50526,7 @@
     </row>
     <row r="1500" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1500" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1500" s="5" t="s">
         <v>3176</v>
@@ -50551,7 +50553,7 @@
     </row>
     <row r="1501" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1501" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1501" s="5" t="s">
         <v>3176</v>
@@ -50578,7 +50580,7 @@
     </row>
     <row r="1502" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1502" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1502" s="5" t="s">
         <v>3176</v>
@@ -50605,7 +50607,7 @@
     </row>
     <row r="1503" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1503" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1503" s="5" t="s">
         <v>3176</v>
@@ -50632,7 +50634,7 @@
     </row>
     <row r="1504" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1504" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1504" s="5" t="s">
         <v>3176</v>
@@ -50659,7 +50661,7 @@
     </row>
     <row r="1505" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1505" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1505" s="5" t="s">
         <v>3176</v>
@@ -50686,7 +50688,7 @@
     </row>
     <row r="1506" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1506" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1506" s="5" t="s">
         <v>3176</v>
@@ -50713,7 +50715,7 @@
     </row>
     <row r="1507" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1507" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1507" s="5" t="s">
         <v>3176</v>
@@ -50740,7 +50742,7 @@
     </row>
     <row r="1508" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1508" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1508" s="5" t="s">
         <v>3176</v>
@@ -50767,7 +50769,7 @@
     </row>
     <row r="1509" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1509" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1509" s="5" t="s">
         <v>3176</v>
@@ -50794,7 +50796,7 @@
     </row>
     <row r="1510" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1510" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1510" s="5" t="s">
         <v>3176</v>
@@ -50821,7 +50823,7 @@
     </row>
     <row r="1511" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1511" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1511" s="5" t="s">
         <v>3176</v>
@@ -50848,7 +50850,7 @@
     </row>
     <row r="1512" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1512" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1512" s="5" t="s">
         <v>3176</v>
@@ -50875,7 +50877,7 @@
     </row>
     <row r="1513" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1513" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1513" s="5" t="s">
         <v>3176</v>
@@ -50902,7 +50904,7 @@
     </row>
     <row r="1514" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1514" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1514" s="5" t="s">
         <v>3176</v>
@@ -50929,7 +50931,7 @@
     </row>
     <row r="1515" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1515" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1515" s="5" t="s">
         <v>3176</v>
@@ -50956,7 +50958,7 @@
     </row>
     <row r="1516" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1516" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1516" s="5" t="s">
         <v>3176</v>
@@ -50983,7 +50985,7 @@
     </row>
     <row r="1517" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1517" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1517" s="5" t="s">
         <v>3176</v>
@@ -51010,7 +51012,7 @@
     </row>
     <row r="1518" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1518" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1518" s="5" t="s">
         <v>3176</v>
@@ -51037,7 +51039,7 @@
     </row>
     <row r="1519" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1519" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1519" s="5" t="s">
         <v>3176</v>
@@ -51064,7 +51066,7 @@
     </row>
     <row r="1520" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1520" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1520" s="5" t="s">
         <v>3176</v>
@@ -51091,7 +51093,7 @@
     </row>
     <row r="1521" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1521" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1521" s="5" t="s">
         <v>3176</v>
@@ -51118,7 +51120,7 @@
     </row>
     <row r="1522" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1522" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1522" s="5" t="s">
         <v>3176</v>
@@ -51145,7 +51147,7 @@
     </row>
     <row r="1523" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1523" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1523" s="5" t="s">
         <v>3176</v>
@@ -51172,7 +51174,7 @@
     </row>
     <row r="1524" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1524" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1524" s="5" t="s">
         <v>3176</v>
@@ -51199,7 +51201,7 @@
     </row>
     <row r="1525" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1525" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1525" s="5" t="s">
         <v>3176</v>
@@ -51226,7 +51228,7 @@
     </row>
     <row r="1526" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1526" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1526" s="5" t="s">
         <v>3176</v>
@@ -51253,7 +51255,7 @@
     </row>
     <row r="1527" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1527" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1527" s="5" t="s">
         <v>3176</v>
@@ -51280,7 +51282,7 @@
     </row>
     <row r="1528" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1528" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1528" s="5" t="s">
         <v>3176</v>
@@ -51307,7 +51309,7 @@
     </row>
     <row r="1529" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1529" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1529" s="5" t="s">
         <v>3176</v>
@@ -51334,7 +51336,7 @@
     </row>
     <row r="1530" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1530" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1530" s="5" t="s">
         <v>3176</v>
@@ -51361,7 +51363,7 @@
     </row>
     <row r="1531" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1531" s="8" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1531" s="5" t="s">
         <v>3176</v>
@@ -51388,7 +51390,7 @@
     </row>
     <row r="1532" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1532" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1532" s="5" t="s">
         <v>3176</v>
@@ -51415,7 +51417,7 @@
     </row>
     <row r="1533" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1533" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1533" s="5" t="s">
         <v>3176</v>
@@ -51442,7 +51444,7 @@
     </row>
     <row r="1534" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1534" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1534" s="5" t="s">
         <v>3176</v>
@@ -51469,7 +51471,7 @@
     </row>
     <row r="1535" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1535" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1535" s="5" t="s">
         <v>3176</v>
@@ -51496,7 +51498,7 @@
     </row>
     <row r="1536" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1536" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1536" s="5" t="s">
         <v>3176</v>
@@ -51523,7 +51525,7 @@
     </row>
     <row r="1537" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1537" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1537" s="5" t="s">
         <v>3176</v>
@@ -51550,7 +51552,7 @@
     </row>
     <row r="1538" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1538" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1538" s="5" t="s">
         <v>3176</v>
@@ -51577,7 +51579,7 @@
     </row>
     <row r="1539" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1539" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1539" s="5" t="s">
         <v>3176</v>
@@ -51604,7 +51606,7 @@
     </row>
     <row r="1540" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1540" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1540" s="5" t="s">
         <v>3176</v>
@@ -51631,7 +51633,7 @@
     </row>
     <row r="1541" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1541" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1541" s="5" t="s">
         <v>3176</v>
@@ -51658,7 +51660,7 @@
     </row>
     <row r="1542" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1542" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1542" s="5" t="s">
         <v>3176</v>
@@ -51685,7 +51687,7 @@
     </row>
     <row r="1543" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1543" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1543" s="5" t="s">
         <v>3176</v>
@@ -51712,7 +51714,7 @@
     </row>
     <row r="1544" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1544" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1544" s="5" t="s">
         <v>3176</v>
@@ -51739,7 +51741,7 @@
     </row>
     <row r="1545" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1545" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1545" s="5" t="s">
         <v>3176</v>
@@ -51766,7 +51768,7 @@
     </row>
     <row r="1546" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1546" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1546" s="5" t="s">
         <v>3176</v>
@@ -51793,7 +51795,7 @@
     </row>
     <row r="1547" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1547" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1547" s="5" t="s">
         <v>3176</v>
@@ -51820,7 +51822,7 @@
     </row>
     <row r="1548" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1548" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1548" s="5" t="s">
         <v>3176</v>
@@ -51847,7 +51849,7 @@
     </row>
     <row r="1549" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1549" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1549" s="5" t="s">
         <v>3176</v>
@@ -51874,7 +51876,7 @@
     </row>
     <row r="1550" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1550" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1550" s="5" t="s">
         <v>3176</v>
@@ -51901,7 +51903,7 @@
     </row>
     <row r="1551" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1551" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1551" s="5" t="s">
         <v>3176</v>
@@ -51928,7 +51930,7 @@
     </row>
     <row r="1552" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1552" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1552" s="5" t="s">
         <v>3176</v>
@@ -51955,7 +51957,7 @@
     </row>
     <row r="1553" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1553" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1553" s="5" t="s">
         <v>3176</v>
@@ -51982,7 +51984,7 @@
     </row>
     <row r="1554" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1554" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1554" s="5" t="s">
         <v>3176</v>
@@ -52009,7 +52011,7 @@
     </row>
     <row r="1555" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1555" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1555" s="5" t="s">
         <v>3176</v>
@@ -52036,7 +52038,7 @@
     </row>
     <row r="1556" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1556" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1556" s="5" t="s">
         <v>3176</v>
@@ -52063,7 +52065,7 @@
     </row>
     <row r="1557" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1557" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1557" s="5" t="s">
         <v>3176</v>
@@ -52090,7 +52092,7 @@
     </row>
     <row r="1558" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1558" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1558" s="5" t="s">
         <v>3176</v>
@@ -52117,7 +52119,7 @@
     </row>
     <row r="1559" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1559" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1559" s="5" t="s">
         <v>3176</v>
@@ -52144,7 +52146,7 @@
     </row>
     <row r="1560" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1560" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1560" s="5" t="s">
         <v>3176</v>
@@ -52171,7 +52173,7 @@
     </row>
     <row r="1561" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1561" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1561" s="5" t="s">
         <v>3176</v>
@@ -52198,7 +52200,7 @@
     </row>
     <row r="1562" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1562" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1562" s="5" t="s">
         <v>3176</v>
@@ -52225,7 +52227,7 @@
     </row>
     <row r="1563" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1563" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1563" s="5" t="s">
         <v>3176</v>
@@ -52252,7 +52254,7 @@
     </row>
     <row r="1564" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1564" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1564" s="5" t="s">
         <v>3176</v>
@@ -52279,7 +52281,7 @@
     </row>
     <row r="1565" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1565" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1565" s="5" t="s">
         <v>3176</v>
@@ -52306,7 +52308,7 @@
     </row>
     <row r="1566" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1566" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1566" s="5" t="s">
         <v>3176</v>
@@ -52333,7 +52335,7 @@
     </row>
     <row r="1567" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1567" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1567" s="5" t="s">
         <v>3176</v>
@@ -52360,7 +52362,7 @@
     </row>
     <row r="1568" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1568" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1568" s="5" t="s">
         <v>3176</v>
@@ -52387,7 +52389,7 @@
     </row>
     <row r="1569" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1569" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1569" s="5" t="s">
         <v>3176</v>
@@ -52414,7 +52416,7 @@
     </row>
     <row r="1570" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1570" s="8" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B1570" s="5" t="s">
         <v>3176</v>
@@ -52441,7 +52443,7 @@
     </row>
     <row r="1571" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1571" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1571" s="5" t="s">
         <v>3176</v>
@@ -52468,7 +52470,7 @@
     </row>
     <row r="1572" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1572" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1572" s="5" t="s">
         <v>3176</v>
@@ -52495,7 +52497,7 @@
     </row>
     <row r="1573" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1573" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1573" s="5" t="s">
         <v>3176</v>
@@ -52522,7 +52524,7 @@
     </row>
     <row r="1574" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1574" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1574" s="5" t="s">
         <v>3176</v>
@@ -52549,7 +52551,7 @@
     </row>
     <row r="1575" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1575" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1575" s="5" t="s">
         <v>3176</v>
@@ -52576,7 +52578,7 @@
     </row>
     <row r="1576" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1576" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1576" s="5" t="s">
         <v>3176</v>
@@ -52603,7 +52605,7 @@
     </row>
     <row r="1577" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1577" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1577" s="5" t="s">
         <v>3176</v>
@@ -52630,7 +52632,7 @@
     </row>
     <row r="1578" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1578" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1578" s="5" t="s">
         <v>3176</v>
@@ -52657,7 +52659,7 @@
     </row>
     <row r="1579" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1579" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1579" s="5" t="s">
         <v>3176</v>
@@ -52684,7 +52686,7 @@
     </row>
     <row r="1580" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1580" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1580" s="5" t="s">
         <v>3176</v>
@@ -52711,7 +52713,7 @@
     </row>
     <row r="1581" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1581" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1581" s="5" t="s">
         <v>3176</v>
@@ -52738,7 +52740,7 @@
     </row>
     <row r="1582" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1582" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1582" s="5" t="s">
         <v>3176</v>
@@ -52765,7 +52767,7 @@
     </row>
     <row r="1583" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1583" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1583" s="5" t="s">
         <v>3176</v>
@@ -52792,7 +52794,7 @@
     </row>
     <row r="1584" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1584" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1584" s="5" t="s">
         <v>3176</v>
@@ -52819,7 +52821,7 @@
     </row>
     <row r="1585" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1585" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1585" s="5" t="s">
         <v>3176</v>
@@ -52846,7 +52848,7 @@
     </row>
     <row r="1586" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1586" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1586" s="5" t="s">
         <v>3176</v>
@@ -52873,7 +52875,7 @@
     </row>
     <row r="1587" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1587" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1587" s="5" t="s">
         <v>3176</v>
@@ -52900,7 +52902,7 @@
     </row>
     <row r="1588" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1588" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1588" s="5" t="s">
         <v>3176</v>
@@ -52927,7 +52929,7 @@
     </row>
     <row r="1589" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1589" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1589" s="5" t="s">
         <v>3176</v>
@@ -52954,7 +52956,7 @@
     </row>
     <row r="1590" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1590" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1590" s="5" t="s">
         <v>3176</v>
@@ -52981,7 +52983,7 @@
     </row>
     <row r="1591" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1591" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1591" s="5" t="s">
         <v>3176</v>
@@ -53008,7 +53010,7 @@
     </row>
     <row r="1592" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1592" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1592" s="5" t="s">
         <v>3176</v>
@@ -53035,7 +53037,7 @@
     </row>
     <row r="1593" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1593" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1593" s="5" t="s">
         <v>3176</v>
@@ -53062,7 +53064,7 @@
     </row>
     <row r="1594" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1594" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1594" s="5" t="s">
         <v>3176</v>
@@ -53089,7 +53091,7 @@
     </row>
     <row r="1595" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1595" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1595" s="5" t="s">
         <v>3176</v>
@@ -53116,7 +53118,7 @@
     </row>
     <row r="1596" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1596" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1596" s="5" t="s">
         <v>3176</v>
@@ -53143,7 +53145,7 @@
     </row>
     <row r="1597" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1597" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1597" s="5" t="s">
         <v>3176</v>
@@ -53170,7 +53172,7 @@
     </row>
     <row r="1598" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1598" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1598" s="5" t="s">
         <v>3176</v>
@@ -53197,7 +53199,7 @@
     </row>
     <row r="1599" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1599" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1599" s="5" t="s">
         <v>3176</v>
@@ -53224,7 +53226,7 @@
     </row>
     <row r="1600" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1600" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1600" s="5" t="s">
         <v>3176</v>
@@ -53251,7 +53253,7 @@
     </row>
     <row r="1601" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1601" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1601" s="5" t="s">
         <v>3176</v>
@@ -53278,7 +53280,7 @@
     </row>
     <row r="1602" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1602" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1602" s="5" t="s">
         <v>3176</v>
@@ -53305,7 +53307,7 @@
     </row>
     <row r="1603" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1603" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1603" s="5" t="s">
         <v>3176</v>
@@ -53332,7 +53334,7 @@
     </row>
     <row r="1604" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1604" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1604" s="5" t="s">
         <v>3176</v>
@@ -53359,7 +53361,7 @@
     </row>
     <row r="1605" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1605" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1605" s="5" t="s">
         <v>3176</v>
@@ -53386,7 +53388,7 @@
     </row>
     <row r="1606" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1606" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1606" s="5" t="s">
         <v>3176</v>
@@ -53413,7 +53415,7 @@
     </row>
     <row r="1607" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1607" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1607" s="5" t="s">
         <v>3176</v>
@@ -53440,7 +53442,7 @@
     </row>
     <row r="1608" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1608" s="8" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1608" s="5" t="s">
         <v>3176</v>
@@ -53467,7 +53469,7 @@
     </row>
     <row r="1609" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1609" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1609" s="5" t="s">
         <v>3176</v>
@@ -53494,7 +53496,7 @@
     </row>
     <row r="1610" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1610" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1610" s="5" t="s">
         <v>3176</v>
@@ -53521,7 +53523,7 @@
     </row>
     <row r="1611" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1611" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1611" s="5" t="s">
         <v>3176</v>
@@ -53548,7 +53550,7 @@
     </row>
     <row r="1612" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1612" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1612" s="5" t="s">
         <v>3176</v>
@@ -53575,7 +53577,7 @@
     </row>
     <row r="1613" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1613" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1613" s="5" t="s">
         <v>3176</v>
@@ -53602,7 +53604,7 @@
     </row>
     <row r="1614" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1614" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1614" s="5" t="s">
         <v>3176</v>
@@ -53629,7 +53631,7 @@
     </row>
     <row r="1615" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1615" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1615" s="5" t="s">
         <v>3176</v>
@@ -53656,7 +53658,7 @@
     </row>
     <row r="1616" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1616" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1616" s="5" t="s">
         <v>3176</v>
@@ -53683,7 +53685,7 @@
     </row>
     <row r="1617" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1617" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1617" s="5" t="s">
         <v>3176</v>
@@ -53710,7 +53712,7 @@
     </row>
     <row r="1618" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1618" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1618" s="5" t="s">
         <v>3176</v>
@@ -53737,7 +53739,7 @@
     </row>
     <row r="1619" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1619" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1619" s="5" t="s">
         <v>3176</v>
@@ -53764,7 +53766,7 @@
     </row>
     <row r="1620" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1620" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1620" s="5" t="s">
         <v>3176</v>
@@ -53791,7 +53793,7 @@
     </row>
     <row r="1621" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1621" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1621" s="5" t="s">
         <v>3176</v>
@@ -53818,7 +53820,7 @@
     </row>
     <row r="1622" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1622" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1622" s="5" t="s">
         <v>3176</v>
@@ -53845,7 +53847,7 @@
     </row>
     <row r="1623" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1623" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1623" s="5" t="s">
         <v>3176</v>
@@ -53872,7 +53874,7 @@
     </row>
     <row r="1624" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1624" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1624" s="5" t="s">
         <v>3176</v>
@@ -53899,7 +53901,7 @@
     </row>
     <row r="1625" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1625" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1625" s="5" t="s">
         <v>3176</v>
@@ -53926,7 +53928,7 @@
     </row>
     <row r="1626" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1626" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1626" s="5" t="s">
         <v>3176</v>
@@ -53953,7 +53955,7 @@
     </row>
     <row r="1627" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1627" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1627" s="5" t="s">
         <v>3176</v>
@@ -53980,7 +53982,7 @@
     </row>
     <row r="1628" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1628" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1628" s="5" t="s">
         <v>3176</v>
@@ -54007,7 +54009,7 @@
     </row>
     <row r="1629" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1629" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1629" s="5" t="s">
         <v>3176</v>
@@ -54034,7 +54036,7 @@
     </row>
     <row r="1630" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1630" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1630" s="5" t="s">
         <v>3176</v>
@@ -54061,7 +54063,7 @@
     </row>
     <row r="1631" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1631" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1631" s="5" t="s">
         <v>3176</v>
@@ -54088,7 +54090,7 @@
     </row>
     <row r="1632" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1632" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1632" s="5" t="s">
         <v>3176</v>
@@ -54115,7 +54117,7 @@
     </row>
     <row r="1633" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1633" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1633" s="5" t="s">
         <v>3176</v>
@@ -54142,7 +54144,7 @@
     </row>
     <row r="1634" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1634" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1634" s="5" t="s">
         <v>3176</v>
@@ -54169,7 +54171,7 @@
     </row>
     <row r="1635" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1635" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1635" s="5" t="s">
         <v>3176</v>
@@ -54196,7 +54198,7 @@
     </row>
     <row r="1636" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1636" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1636" s="5" t="s">
         <v>3176</v>
@@ -54223,7 +54225,7 @@
     </row>
     <row r="1637" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1637" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1637" s="5" t="s">
         <v>3176</v>
@@ -54250,7 +54252,7 @@
     </row>
     <row r="1638" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1638" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1638" s="5" t="s">
         <v>3176</v>
@@ -54277,7 +54279,7 @@
     </row>
     <row r="1639" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1639" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1639" s="5" t="s">
         <v>3176</v>
@@ -54304,7 +54306,7 @@
     </row>
     <row r="1640" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1640" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1640" s="5" t="s">
         <v>3176</v>
@@ -54331,7 +54333,7 @@
     </row>
     <row r="1641" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1641" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1641" s="5" t="s">
         <v>3176</v>
@@ -54358,7 +54360,7 @@
     </row>
     <row r="1642" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1642" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1642" s="5" t="s">
         <v>3176</v>
@@ -54385,7 +54387,7 @@
     </row>
     <row r="1643" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1643" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1643" s="5" t="s">
         <v>3176</v>
@@ -54412,7 +54414,7 @@
     </row>
     <row r="1644" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1644" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1644" s="5" t="s">
         <v>3176</v>
@@ -54439,7 +54441,7 @@
     </row>
     <row r="1645" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1645" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1645" s="5" t="s">
         <v>3176</v>
@@ -54466,7 +54468,7 @@
     </row>
     <row r="1646" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1646" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1646" s="5" t="s">
         <v>3176</v>
@@ -54493,7 +54495,7 @@
     </row>
     <row r="1647" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1647" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1647" s="5" t="s">
         <v>3176</v>
@@ -54520,7 +54522,7 @@
     </row>
     <row r="1648" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1648" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1648" s="5" t="s">
         <v>3176</v>
@@ -54547,7 +54549,7 @@
     </row>
     <row r="1649" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1649" s="8" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B1649" s="5" t="s">
         <v>3176</v>
@@ -54574,7 +54576,7 @@
     </row>
     <row r="1650" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1650" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1650" s="5" t="s">
         <v>3176</v>
@@ -54601,7 +54603,7 @@
     </row>
     <row r="1651" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1651" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1651" s="5" t="s">
         <v>3176</v>
@@ -54628,7 +54630,7 @@
     </row>
     <row r="1652" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1652" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1652" s="5" t="s">
         <v>3176</v>
@@ -54655,7 +54657,7 @@
     </row>
     <row r="1653" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1653" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1653" s="5" t="s">
         <v>3176</v>
@@ -54682,7 +54684,7 @@
     </row>
     <row r="1654" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1654" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1654" s="5" t="s">
         <v>3176</v>
@@ -54709,7 +54711,7 @@
     </row>
     <row r="1655" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1655" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1655" s="5" t="s">
         <v>3176</v>
@@ -54736,7 +54738,7 @@
     </row>
     <row r="1656" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1656" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1656" s="5" t="s">
         <v>3176</v>
@@ -54763,7 +54765,7 @@
     </row>
     <row r="1657" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1657" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1657" s="5" t="s">
         <v>3176</v>
@@ -54790,7 +54792,7 @@
     </row>
     <row r="1658" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1658" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1658" s="5" t="s">
         <v>3176</v>
@@ -54817,7 +54819,7 @@
     </row>
     <row r="1659" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1659" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1659" s="5" t="s">
         <v>3176</v>
@@ -54844,7 +54846,7 @@
     </row>
     <row r="1660" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1660" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1660" s="5" t="s">
         <v>3176</v>
@@ -54871,7 +54873,7 @@
     </row>
     <row r="1661" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1661" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1661" s="5" t="s">
         <v>3176</v>
@@ -54898,7 +54900,7 @@
     </row>
     <row r="1662" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1662" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1662" s="5" t="s">
         <v>3176</v>
@@ -54925,7 +54927,7 @@
     </row>
     <row r="1663" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1663" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1663" s="5" t="s">
         <v>3176</v>
@@ -54952,7 +54954,7 @@
     </row>
     <row r="1664" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1664" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1664" s="5" t="s">
         <v>3176</v>
@@ -54979,7 +54981,7 @@
     </row>
     <row r="1665" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1665" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1665" s="5" t="s">
         <v>3176</v>
@@ -55006,7 +55008,7 @@
     </row>
     <row r="1666" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1666" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1666" s="5" t="s">
         <v>3176</v>
@@ -55033,7 +55035,7 @@
     </row>
     <row r="1667" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1667" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1667" s="5" t="s">
         <v>3176</v>
@@ -55060,7 +55062,7 @@
     </row>
     <row r="1668" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1668" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1668" s="5" t="s">
         <v>3176</v>
@@ -55087,7 +55089,7 @@
     </row>
     <row r="1669" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1669" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1669" s="5" t="s">
         <v>3176</v>
@@ -55114,7 +55116,7 @@
     </row>
     <row r="1670" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1670" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1670" s="5" t="s">
         <v>3176</v>
@@ -55141,7 +55143,7 @@
     </row>
     <row r="1671" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1671" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1671" s="5" t="s">
         <v>3176</v>
@@ -55168,7 +55170,7 @@
     </row>
     <row r="1672" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1672" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1672" s="5" t="s">
         <v>3176</v>
@@ -55195,7 +55197,7 @@
     </row>
     <row r="1673" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1673" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1673" s="5" t="s">
         <v>3176</v>
@@ -55222,7 +55224,7 @@
     </row>
     <row r="1674" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1674" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1674" s="5" t="s">
         <v>3176</v>
@@ -55249,7 +55251,7 @@
     </row>
     <row r="1675" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1675" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1675" s="5" t="s">
         <v>3176</v>
@@ -55276,7 +55278,7 @@
     </row>
     <row r="1676" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1676" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1676" s="5" t="s">
         <v>3176</v>
@@ -55303,7 +55305,7 @@
     </row>
     <row r="1677" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1677" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1677" s="5" t="s">
         <v>3176</v>
@@ -55330,7 +55332,7 @@
     </row>
     <row r="1678" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1678" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1678" s="5" t="s">
         <v>3176</v>
@@ -55357,7 +55359,7 @@
     </row>
     <row r="1679" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1679" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1679" s="5" t="s">
         <v>3176</v>
@@ -55384,7 +55386,7 @@
     </row>
     <row r="1680" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1680" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1680" s="5" t="s">
         <v>3176</v>
@@ -55411,7 +55413,7 @@
     </row>
     <row r="1681" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1681" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1681" s="5" t="s">
         <v>3176</v>
@@ -55438,7 +55440,7 @@
     </row>
     <row r="1682" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1682" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1682" s="5" t="s">
         <v>3176</v>
@@ -55465,7 +55467,7 @@
     </row>
     <row r="1683" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1683" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1683" s="5" t="s">
         <v>3176</v>
@@ -55492,7 +55494,7 @@
     </row>
     <row r="1684" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1684" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1684" s="5" t="s">
         <v>3176</v>
@@ -55519,7 +55521,7 @@
     </row>
     <row r="1685" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1685" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1685" s="5" t="s">
         <v>3176</v>
@@ -55546,7 +55548,7 @@
     </row>
     <row r="1686" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1686" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1686" s="5" t="s">
         <v>3176</v>
@@ -55573,7 +55575,7 @@
     </row>
     <row r="1687" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1687" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1687" s="5" t="s">
         <v>3176</v>
@@ -55600,7 +55602,7 @@
     </row>
     <row r="1688" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1688" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1688" s="5" t="s">
         <v>3176</v>
@@ -55627,7 +55629,7 @@
     </row>
     <row r="1689" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1689" s="8" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B1689" s="5" t="s">
         <v>3176</v>
@@ -55654,7 +55656,7 @@
     </row>
     <row r="1690" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1690" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1690" s="5" t="s">
         <v>3176</v>
@@ -55681,7 +55683,7 @@
     </row>
     <row r="1691" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1691" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1691" s="5" t="s">
         <v>3176</v>
@@ -55708,7 +55710,7 @@
     </row>
     <row r="1692" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1692" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1692" s="5" t="s">
         <v>3176</v>
@@ -55735,7 +55737,7 @@
     </row>
     <row r="1693" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1693" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1693" s="5" t="s">
         <v>3176</v>
@@ -55762,7 +55764,7 @@
     </row>
     <row r="1694" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1694" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1694" s="5" t="s">
         <v>3176</v>
@@ -55789,7 +55791,7 @@
     </row>
     <row r="1695" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1695" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1695" s="5" t="s">
         <v>3176</v>
@@ -55816,7 +55818,7 @@
     </row>
     <row r="1696" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1696" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1696" s="5" t="s">
         <v>3176</v>
@@ -55843,7 +55845,7 @@
     </row>
     <row r="1697" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1697" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1697" s="5" t="s">
         <v>3176</v>
@@ -55870,7 +55872,7 @@
     </row>
     <row r="1698" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1698" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1698" s="5" t="s">
         <v>3176</v>
@@ -55897,7 +55899,7 @@
     </row>
     <row r="1699" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1699" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1699" s="5" t="s">
         <v>3176</v>
@@ -55924,7 +55926,7 @@
     </row>
     <row r="1700" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1700" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1700" s="5" t="s">
         <v>3176</v>
@@ -55951,7 +55953,7 @@
     </row>
     <row r="1701" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1701" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1701" s="5" t="s">
         <v>3176</v>
@@ -55978,7 +55980,7 @@
     </row>
     <row r="1702" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1702" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1702" s="5" t="s">
         <v>3176</v>
@@ -56005,7 +56007,7 @@
     </row>
     <row r="1703" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1703" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1703" s="5" t="s">
         <v>3176</v>
@@ -56032,7 +56034,7 @@
     </row>
     <row r="1704" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1704" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1704" s="5" t="s">
         <v>3176</v>
@@ -56059,7 +56061,7 @@
     </row>
     <row r="1705" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1705" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1705" s="5" t="s">
         <v>3176</v>
@@ -56086,7 +56088,7 @@
     </row>
     <row r="1706" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1706" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1706" s="5" t="s">
         <v>3176</v>
@@ -56113,7 +56115,7 @@
     </row>
     <row r="1707" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1707" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1707" s="5" t="s">
         <v>3176</v>
@@ -56140,7 +56142,7 @@
     </row>
     <row r="1708" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1708" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1708" s="5" t="s">
         <v>3176</v>
@@ -56167,7 +56169,7 @@
     </row>
     <row r="1709" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1709" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1709" s="5" t="s">
         <v>3176</v>
@@ -56194,7 +56196,7 @@
     </row>
     <row r="1710" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1710" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1710" s="5" t="s">
         <v>3176</v>
@@ -56221,7 +56223,7 @@
     </row>
     <row r="1711" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1711" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1711" s="5" t="s">
         <v>3176</v>
@@ -56248,7 +56250,7 @@
     </row>
     <row r="1712" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1712" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1712" s="5" t="s">
         <v>3176</v>
@@ -56275,7 +56277,7 @@
     </row>
     <row r="1713" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1713" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1713" s="5" t="s">
         <v>3176</v>
@@ -56302,7 +56304,7 @@
     </row>
     <row r="1714" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1714" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1714" s="5" t="s">
         <v>3176</v>
@@ -56329,7 +56331,7 @@
     </row>
     <row r="1715" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1715" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1715" s="5" t="s">
         <v>3176</v>
@@ -56356,7 +56358,7 @@
     </row>
     <row r="1716" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1716" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1716" s="5" t="s">
         <v>3176</v>
@@ -56383,7 +56385,7 @@
     </row>
     <row r="1717" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1717" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1717" s="5" t="s">
         <v>3176</v>
@@ -56410,7 +56412,7 @@
     </row>
     <row r="1718" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1718" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1718" s="5" t="s">
         <v>3176</v>
@@ -56437,7 +56439,7 @@
     </row>
     <row r="1719" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1719" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1719" s="5" t="s">
         <v>3176</v>
@@ -56464,7 +56466,7 @@
     </row>
     <row r="1720" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1720" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1720" s="5" t="s">
         <v>3176</v>
@@ -56491,7 +56493,7 @@
     </row>
     <row r="1721" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1721" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1721" s="5" t="s">
         <v>3176</v>
@@ -56518,7 +56520,7 @@
     </row>
     <row r="1722" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1722" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1722" s="5" t="s">
         <v>3176</v>
@@ -56545,7 +56547,7 @@
     </row>
     <row r="1723" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1723" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1723" s="5" t="s">
         <v>3176</v>
@@ -56572,7 +56574,7 @@
     </row>
     <row r="1724" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1724" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1724" s="5" t="s">
         <v>3176</v>
@@ -56599,7 +56601,7 @@
     </row>
     <row r="1725" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1725" s="8" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B1725" s="5" t="s">
         <v>3176</v>
@@ -60679,7 +60681,7 @@
         <v>147</v>
       </c>
       <c r="B1876" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1876" s="6">
         <v>2</v>
@@ -60706,7 +60708,7 @@
         <v>147</v>
       </c>
       <c r="B1877" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1877" s="6">
         <v>2</v>
@@ -60733,7 +60735,7 @@
         <v>147</v>
       </c>
       <c r="B1878" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1878" s="6">
         <v>2</v>
@@ -60760,7 +60762,7 @@
         <v>147</v>
       </c>
       <c r="B1879" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1879" s="6">
         <v>2</v>
@@ -60787,7 +60789,7 @@
         <v>147</v>
       </c>
       <c r="B1880" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1880" s="6">
         <v>2</v>
@@ -60814,7 +60816,7 @@
         <v>147</v>
       </c>
       <c r="B1881" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1881" s="6">
         <v>2</v>
@@ -60841,7 +60843,7 @@
         <v>147</v>
       </c>
       <c r="B1882" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1882" s="6">
         <v>3</v>
@@ -60868,7 +60870,7 @@
         <v>147</v>
       </c>
       <c r="B1883" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1883" s="6">
         <v>3</v>
@@ -60895,7 +60897,7 @@
         <v>147</v>
       </c>
       <c r="B1884" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1884" s="6">
         <v>3</v>
@@ -60922,7 +60924,7 @@
         <v>147</v>
       </c>
       <c r="B1885" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1885" s="6">
         <v>3</v>
@@ -60949,7 +60951,7 @@
         <v>147</v>
       </c>
       <c r="B1886" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1886" s="6">
         <v>3</v>
@@ -60976,7 +60978,7 @@
         <v>147</v>
       </c>
       <c r="B1887" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1887" s="6">
         <v>3</v>
@@ -61003,7 +61005,7 @@
         <v>147</v>
       </c>
       <c r="B1888" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1888" s="6">
         <v>4</v>
@@ -61030,7 +61032,7 @@
         <v>147</v>
       </c>
       <c r="B1889" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1889" s="6">
         <v>4</v>
@@ -61057,7 +61059,7 @@
         <v>147</v>
       </c>
       <c r="B1890" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1890" s="6">
         <v>4</v>
@@ -61084,7 +61086,7 @@
         <v>147</v>
       </c>
       <c r="B1891" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1891" s="6">
         <v>4</v>
@@ -61111,7 +61113,7 @@
         <v>147</v>
       </c>
       <c r="B1892" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1892" s="6">
         <v>4</v>
@@ -61138,7 +61140,7 @@
         <v>147</v>
       </c>
       <c r="B1893" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1893" s="6">
         <v>4</v>
@@ -61165,7 +61167,7 @@
         <v>148</v>
       </c>
       <c r="B1894" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1894" s="6">
         <v>2</v>
@@ -61192,7 +61194,7 @@
         <v>148</v>
       </c>
       <c r="B1895" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1895" s="6">
         <v>2</v>
@@ -61219,7 +61221,7 @@
         <v>148</v>
       </c>
       <c r="B1896" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1896" s="6">
         <v>2</v>
@@ -61246,7 +61248,7 @@
         <v>148</v>
       </c>
       <c r="B1897" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1897" s="6">
         <v>2</v>
@@ -61273,7 +61275,7 @@
         <v>148</v>
       </c>
       <c r="B1898" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1898" s="6">
         <v>2</v>
@@ -61300,7 +61302,7 @@
         <v>148</v>
       </c>
       <c r="B1899" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1899" s="6">
         <v>2</v>
@@ -61327,7 +61329,7 @@
         <v>148</v>
       </c>
       <c r="B1900" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1900" s="6">
         <v>3</v>
@@ -61354,7 +61356,7 @@
         <v>148</v>
       </c>
       <c r="B1901" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1901" s="6">
         <v>3</v>
@@ -61381,7 +61383,7 @@
         <v>148</v>
       </c>
       <c r="B1902" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1902" s="6">
         <v>3</v>
@@ -61408,7 +61410,7 @@
         <v>148</v>
       </c>
       <c r="B1903" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1903" s="6">
         <v>3</v>
@@ -61435,7 +61437,7 @@
         <v>148</v>
       </c>
       <c r="B1904" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1904" s="6">
         <v>3</v>
@@ -61462,7 +61464,7 @@
         <v>148</v>
       </c>
       <c r="B1905" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1905" s="6">
         <v>3</v>
@@ -61489,7 +61491,7 @@
         <v>148</v>
       </c>
       <c r="B1906" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1906" s="6">
         <v>4</v>
@@ -61516,7 +61518,7 @@
         <v>148</v>
       </c>
       <c r="B1907" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1907" s="6">
         <v>4</v>
@@ -61543,7 +61545,7 @@
         <v>148</v>
       </c>
       <c r="B1908" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1908" s="6">
         <v>4</v>
@@ -61570,7 +61572,7 @@
         <v>148</v>
       </c>
       <c r="B1909" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1909" s="6">
         <v>4</v>
@@ -61597,7 +61599,7 @@
         <v>149</v>
       </c>
       <c r="B1910" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1910" s="6">
         <v>2</v>
@@ -61624,7 +61626,7 @@
         <v>149</v>
       </c>
       <c r="B1911" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1911" s="6">
         <v>2</v>
@@ -61651,7 +61653,7 @@
         <v>149</v>
       </c>
       <c r="B1912" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1912" s="6">
         <v>2</v>
@@ -61678,7 +61680,7 @@
         <v>149</v>
       </c>
       <c r="B1913" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1913" s="6">
         <v>2</v>
@@ -61705,7 +61707,7 @@
         <v>149</v>
       </c>
       <c r="B1914" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1914" s="6">
         <v>2</v>
@@ -61732,7 +61734,7 @@
         <v>149</v>
       </c>
       <c r="B1915" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1915" s="6">
         <v>2</v>
@@ -61759,7 +61761,7 @@
         <v>149</v>
       </c>
       <c r="B1916" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1916" s="6">
         <v>3</v>
@@ -61786,7 +61788,7 @@
         <v>149</v>
       </c>
       <c r="B1917" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1917" s="6">
         <v>3</v>
@@ -61813,7 +61815,7 @@
         <v>149</v>
       </c>
       <c r="B1918" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1918" s="6">
         <v>3</v>
@@ -61840,7 +61842,7 @@
         <v>149</v>
       </c>
       <c r="B1919" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1919" s="6">
         <v>3</v>
@@ -61867,7 +61869,7 @@
         <v>149</v>
       </c>
       <c r="B1920" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1920" s="6">
         <v>3</v>
@@ -61894,7 +61896,7 @@
         <v>149</v>
       </c>
       <c r="B1921" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1921" s="6">
         <v>3</v>
@@ -61921,7 +61923,7 @@
         <v>149</v>
       </c>
       <c r="B1922" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1922" s="6">
         <v>3</v>
@@ -61948,7 +61950,7 @@
         <v>149</v>
       </c>
       <c r="B1923" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1923" s="6">
         <v>4</v>
@@ -61975,7 +61977,7 @@
         <v>149</v>
       </c>
       <c r="B1924" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1924" s="6">
         <v>4</v>
@@ -62002,7 +62004,7 @@
         <v>149</v>
       </c>
       <c r="B1925" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1925" s="6">
         <v>4</v>
@@ -62029,7 +62031,7 @@
         <v>149</v>
       </c>
       <c r="B1926" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1926" s="6">
         <v>4</v>
@@ -62056,7 +62058,7 @@
         <v>150</v>
       </c>
       <c r="B1927" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1927" s="6">
         <v>2</v>
@@ -62083,7 +62085,7 @@
         <v>150</v>
       </c>
       <c r="B1928" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1928" s="6">
         <v>2</v>
@@ -62110,7 +62112,7 @@
         <v>150</v>
       </c>
       <c r="B1929" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1929" s="6">
         <v>2</v>
@@ -62137,7 +62139,7 @@
         <v>150</v>
       </c>
       <c r="B1930" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1930" s="6">
         <v>2</v>
@@ -62164,7 +62166,7 @@
         <v>150</v>
       </c>
       <c r="B1931" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1931" s="6">
         <v>2</v>
@@ -62191,7 +62193,7 @@
         <v>150</v>
       </c>
       <c r="B1932" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1932" s="6">
         <v>2</v>
@@ -62218,7 +62220,7 @@
         <v>150</v>
       </c>
       <c r="B1933" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1933" s="6">
         <v>3</v>
@@ -62245,7 +62247,7 @@
         <v>150</v>
       </c>
       <c r="B1934" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1934" s="6">
         <v>3</v>
@@ -62272,7 +62274,7 @@
         <v>150</v>
       </c>
       <c r="B1935" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1935" s="6">
         <v>3</v>
@@ -62299,7 +62301,7 @@
         <v>150</v>
       </c>
       <c r="B1936" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1936" s="6">
         <v>3</v>
@@ -62326,7 +62328,7 @@
         <v>150</v>
       </c>
       <c r="B1937" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1937" s="6">
         <v>3</v>
@@ -62353,7 +62355,7 @@
         <v>150</v>
       </c>
       <c r="B1938" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1938" s="6">
         <v>3</v>
@@ -62380,7 +62382,7 @@
         <v>150</v>
       </c>
       <c r="B1939" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1939" s="6">
         <v>4</v>
@@ -62407,7 +62409,7 @@
         <v>150</v>
       </c>
       <c r="B1940" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1940" s="6">
         <v>4</v>
@@ -62434,7 +62436,7 @@
         <v>150</v>
       </c>
       <c r="B1941" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1941" s="6">
         <v>4</v>
@@ -62461,7 +62463,7 @@
         <v>151</v>
       </c>
       <c r="B1942" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1942" s="6">
         <v>2</v>
@@ -62488,7 +62490,7 @@
         <v>151</v>
       </c>
       <c r="B1943" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1943" s="6">
         <v>2</v>
@@ -62515,7 +62517,7 @@
         <v>151</v>
       </c>
       <c r="B1944" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1944" s="6">
         <v>2</v>
@@ -62542,7 +62544,7 @@
         <v>151</v>
       </c>
       <c r="B1945" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1945" s="6">
         <v>2</v>
@@ -62569,7 +62571,7 @@
         <v>151</v>
       </c>
       <c r="B1946" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1946" s="6">
         <v>2</v>
@@ -62596,7 +62598,7 @@
         <v>151</v>
       </c>
       <c r="B1947" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1947" s="6">
         <v>2</v>
@@ -62623,7 +62625,7 @@
         <v>151</v>
       </c>
       <c r="B1948" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1948" s="6">
         <v>2</v>
@@ -62650,7 +62652,7 @@
         <v>151</v>
       </c>
       <c r="B1949" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1949" s="6">
         <v>2</v>
@@ -62677,7 +62679,7 @@
         <v>151</v>
       </c>
       <c r="B1950" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1950" s="6">
         <v>2</v>
@@ -62704,7 +62706,7 @@
         <v>151</v>
       </c>
       <c r="B1951" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1951" s="6">
         <v>2</v>
@@ -62731,7 +62733,7 @@
         <v>151</v>
       </c>
       <c r="B1952" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1952" s="6">
         <v>3</v>
@@ -62758,7 +62760,7 @@
         <v>151</v>
       </c>
       <c r="B1953" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1953" s="6">
         <v>3</v>
@@ -62785,7 +62787,7 @@
         <v>151</v>
       </c>
       <c r="B1954" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1954" s="6">
         <v>3</v>
@@ -62812,7 +62814,7 @@
         <v>151</v>
       </c>
       <c r="B1955" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1955" s="6">
         <v>3</v>
@@ -62839,7 +62841,7 @@
         <v>151</v>
       </c>
       <c r="B1956" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1956" s="6">
         <v>3</v>
@@ -62866,7 +62868,7 @@
         <v>151</v>
       </c>
       <c r="B1957" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1957" s="6">
         <v>3</v>
@@ -62891,7 +62893,7 @@
         <v>151</v>
       </c>
       <c r="B1958" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1958" s="6">
         <v>4</v>
@@ -62918,7 +62920,7 @@
         <v>151</v>
       </c>
       <c r="B1959" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1959" s="6">
         <v>4</v>
@@ -62945,7 +62947,7 @@
         <v>151</v>
       </c>
       <c r="B1960" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1960" s="6">
         <v>4</v>
@@ -62972,7 +62974,7 @@
         <v>151</v>
       </c>
       <c r="B1961" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1961" s="6">
         <v>4</v>
@@ -62999,7 +63001,7 @@
         <v>151</v>
       </c>
       <c r="B1962" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1962" s="6">
         <v>4</v>
@@ -63026,7 +63028,7 @@
         <v>151</v>
       </c>
       <c r="B1963" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1963" s="6">
         <v>4</v>
@@ -63053,7 +63055,7 @@
         <v>151</v>
       </c>
       <c r="B1964" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1964" s="6">
         <v>4</v>
@@ -63080,7 +63082,7 @@
         <v>151</v>
       </c>
       <c r="B1965" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1965" s="6">
         <v>4</v>
@@ -63107,7 +63109,7 @@
         <v>152</v>
       </c>
       <c r="B1966" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1966" s="6">
         <v>2</v>
@@ -63134,7 +63136,7 @@
         <v>152</v>
       </c>
       <c r="B1967" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1967" s="6">
         <v>2</v>
@@ -63161,7 +63163,7 @@
         <v>152</v>
       </c>
       <c r="B1968" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1968" s="6">
         <v>2</v>
@@ -63188,7 +63190,7 @@
         <v>152</v>
       </c>
       <c r="B1969" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1969" s="6">
         <v>2</v>
@@ -63215,7 +63217,7 @@
         <v>152</v>
       </c>
       <c r="B1970" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1970" s="6">
         <v>2</v>
@@ -63242,7 +63244,7 @@
         <v>152</v>
       </c>
       <c r="B1971" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1971" s="6">
         <v>3</v>
@@ -63269,7 +63271,7 @@
         <v>152</v>
       </c>
       <c r="B1972" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1972" s="6">
         <v>3</v>
@@ -63296,7 +63298,7 @@
         <v>152</v>
       </c>
       <c r="B1973" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1973" s="6">
         <v>3</v>
@@ -63323,7 +63325,7 @@
         <v>152</v>
       </c>
       <c r="B1974" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1974" s="6">
         <v>3</v>
@@ -63350,7 +63352,7 @@
         <v>152</v>
       </c>
       <c r="B1975" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1975" s="6">
         <v>3</v>
@@ -63377,7 +63379,7 @@
         <v>152</v>
       </c>
       <c r="B1976" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1976" s="6">
         <v>3</v>
@@ -63404,7 +63406,7 @@
         <v>152</v>
       </c>
       <c r="B1977" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1977" s="6">
         <v>3</v>
@@ -63431,7 +63433,7 @@
         <v>152</v>
       </c>
       <c r="B1978" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1978" s="6">
         <v>3</v>
@@ -63458,7 +63460,7 @@
         <v>152</v>
       </c>
       <c r="B1979" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1979" s="6">
         <v>4</v>
@@ -63485,7 +63487,7 @@
         <v>152</v>
       </c>
       <c r="B1980" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1980" s="6">
         <v>4</v>
@@ -63512,7 +63514,7 @@
         <v>152</v>
       </c>
       <c r="B1981" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1981" s="6">
         <v>4</v>
@@ -63539,7 +63541,7 @@
         <v>152</v>
       </c>
       <c r="B1982" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1982" s="6">
         <v>4</v>
@@ -63566,7 +63568,7 @@
         <v>152</v>
       </c>
       <c r="B1983" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1983" s="6">
         <v>4</v>
@@ -63593,7 +63595,7 @@
         <v>153</v>
       </c>
       <c r="B1984" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1984" s="6">
         <v>2</v>
@@ -63618,7 +63620,7 @@
         <v>153</v>
       </c>
       <c r="B1985" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1985" s="6">
         <v>2</v>
@@ -63645,7 +63647,7 @@
         <v>153</v>
       </c>
       <c r="B1986" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1986" s="6">
         <v>2</v>
@@ -63672,7 +63674,7 @@
         <v>153</v>
       </c>
       <c r="B1987" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1987" s="6">
         <v>2</v>
@@ -63697,7 +63699,7 @@
         <v>153</v>
       </c>
       <c r="B1988" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1988" s="6">
         <v>2</v>
@@ -63724,7 +63726,7 @@
         <v>153</v>
       </c>
       <c r="B1989" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1989" s="6">
         <v>2</v>
@@ -63751,7 +63753,7 @@
         <v>153</v>
       </c>
       <c r="B1990" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1990" s="6">
         <v>2</v>
@@ -63778,7 +63780,7 @@
         <v>153</v>
       </c>
       <c r="B1991" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1991" s="6">
         <v>2</v>
@@ -63803,7 +63805,7 @@
         <v>153</v>
       </c>
       <c r="B1992" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1992" s="6">
         <v>3</v>
@@ -63830,7 +63832,7 @@
         <v>153</v>
       </c>
       <c r="B1993" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1993" s="6">
         <v>3</v>
@@ -63857,7 +63859,7 @@
         <v>153</v>
       </c>
       <c r="B1994" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1994" s="6">
         <v>3</v>
@@ -63884,7 +63886,7 @@
         <v>153</v>
       </c>
       <c r="B1995" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1995" s="6">
         <v>3</v>
@@ -63911,7 +63913,7 @@
         <v>153</v>
       </c>
       <c r="B1996" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1996" s="6">
         <v>3</v>
@@ -63938,7 +63940,7 @@
         <v>153</v>
       </c>
       <c r="B1997" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1997" s="6">
         <v>3</v>
@@ -63963,7 +63965,7 @@
         <v>153</v>
       </c>
       <c r="B1998" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1998" s="6">
         <v>3</v>
@@ -63990,7 +63992,7 @@
         <v>153</v>
       </c>
       <c r="B1999" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C1999" s="6">
         <v>3</v>
@@ -64017,7 +64019,7 @@
         <v>153</v>
       </c>
       <c r="B2000" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C2000" s="6">
         <v>3</v>
@@ -64042,7 +64044,7 @@
         <v>153</v>
       </c>
       <c r="B2001" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C2001" s="6">
         <v>4</v>
@@ -64069,7 +64071,7 @@
         <v>153</v>
       </c>
       <c r="B2002" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C2002" s="6">
         <v>4</v>
@@ -64094,7 +64096,7 @@
         <v>153</v>
       </c>
       <c r="B2003" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C2003" s="6">
         <v>4</v>
@@ -64121,7 +64123,7 @@
         <v>153</v>
       </c>
       <c r="B2004" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C2004" s="6">
         <v>4</v>
@@ -64148,7 +64150,7 @@
         <v>153</v>
       </c>
       <c r="B2005" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C2005" s="6">
         <v>4</v>
@@ -64173,7 +64175,7 @@
         <v>153</v>
       </c>
       <c r="B2006" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C2006" s="6">
         <v>4</v>
@@ -64198,7 +64200,7 @@
         <v>153</v>
       </c>
       <c r="B2007" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C2007" s="6">
         <v>4</v>
@@ -64223,7 +64225,7 @@
         <v>153</v>
       </c>
       <c r="B2008" s="5" t="s">
-        <v>3178</v>
+        <v>3189</v>
       </c>
       <c r="C2008" s="6">
         <v>4</v>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B7AF4-14E8-4FF3-8435-7EB13CB53053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F3C7A4-C758-449A-95C3-4002349C09AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10680" uniqueCount="3190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10680" uniqueCount="3191">
   <si>
     <t>현대소설론세미나</t>
   </si>
@@ -9664,6 +9664,10 @@
   </si>
   <si>
     <t>융합전공, 융합부전공, 연계전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보보안전공(평캠)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10057,9 +10061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -33713,7 +33715,7 @@
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A877" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B877" s="5" t="s">
         <v>3176</v>
@@ -33740,7 +33742,7 @@
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A878" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B878" s="5" t="s">
         <v>3176</v>
@@ -33767,7 +33769,7 @@
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A879" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B879" s="5" t="s">
         <v>3176</v>
@@ -33794,7 +33796,7 @@
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A880" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B880" s="5" t="s">
         <v>3176</v>
@@ -33821,7 +33823,7 @@
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A881" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B881" s="5" t="s">
         <v>3176</v>
@@ -33848,7 +33850,7 @@
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A882" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B882" s="5" t="s">
         <v>3176</v>
@@ -33875,7 +33877,7 @@
     </row>
     <row r="883" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A883" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B883" s="5" t="s">
         <v>3176</v>
@@ -33902,7 +33904,7 @@
     </row>
     <row r="884" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A884" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B884" s="5" t="s">
         <v>3176</v>
@@ -33929,7 +33931,7 @@
     </row>
     <row r="885" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A885" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B885" s="5" t="s">
         <v>3176</v>
@@ -33956,7 +33958,7 @@
     </row>
     <row r="886" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A886" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B886" s="5" t="s">
         <v>3176</v>
@@ -33983,7 +33985,7 @@
     </row>
     <row r="887" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A887" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B887" s="5" t="s">
         <v>3176</v>
@@ -34010,7 +34012,7 @@
     </row>
     <row r="888" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A888" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B888" s="5" t="s">
         <v>3176</v>
@@ -34037,7 +34039,7 @@
     </row>
     <row r="889" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A889" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B889" s="5" t="s">
         <v>3176</v>
@@ -34064,7 +34066,7 @@
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A890" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B890" s="5" t="s">
         <v>3176</v>
@@ -34091,7 +34093,7 @@
     </row>
     <row r="891" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A891" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B891" s="5" t="s">
         <v>3176</v>
@@ -34118,7 +34120,7 @@
     </row>
     <row r="892" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A892" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B892" s="5" t="s">
         <v>3176</v>
@@ -34145,7 +34147,7 @@
     </row>
     <row r="893" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A893" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B893" s="5" t="s">
         <v>3176</v>
@@ -34172,7 +34174,7 @@
     </row>
     <row r="894" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A894" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B894" s="5" t="s">
         <v>3176</v>
@@ -34199,7 +34201,7 @@
     </row>
     <row r="895" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A895" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B895" s="5" t="s">
         <v>3176</v>
@@ -34226,7 +34228,7 @@
     </row>
     <row r="896" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A896" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B896" s="5" t="s">
         <v>3176</v>
@@ -34253,7 +34255,7 @@
     </row>
     <row r="897" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A897" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B897" s="5" t="s">
         <v>3176</v>
@@ -34280,7 +34282,7 @@
     </row>
     <row r="898" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A898" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B898" s="5" t="s">
         <v>3176</v>
@@ -34307,7 +34309,7 @@
     </row>
     <row r="899" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A899" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B899" s="5" t="s">
         <v>3176</v>
@@ -34334,7 +34336,7 @@
     </row>
     <row r="900" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A900" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B900" s="5" t="s">
         <v>3176</v>
@@ -34361,7 +34363,7 @@
     </row>
     <row r="901" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A901" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B901" s="5" t="s">
         <v>3176</v>
@@ -34388,7 +34390,7 @@
     </row>
     <row r="902" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A902" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B902" s="5" t="s">
         <v>3176</v>
@@ -34415,7 +34417,7 @@
     </row>
     <row r="903" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A903" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B903" s="5" t="s">
         <v>3176</v>
@@ -34442,7 +34444,7 @@
     </row>
     <row r="904" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A904" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B904" s="5" t="s">
         <v>3176</v>
@@ -34469,7 +34471,7 @@
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A905" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B905" s="5" t="s">
         <v>3176</v>
@@ -34496,7 +34498,7 @@
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A906" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B906" s="5" t="s">
         <v>3176</v>
@@ -34523,7 +34525,7 @@
     </row>
     <row r="907" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A907" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B907" s="5" t="s">
         <v>3176</v>
@@ -34550,7 +34552,7 @@
     </row>
     <row r="908" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A908" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B908" s="5" t="s">
         <v>3176</v>
@@ -34577,7 +34579,7 @@
     </row>
     <row r="909" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A909" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B909" s="5" t="s">
         <v>3176</v>
@@ -34604,7 +34606,7 @@
     </row>
     <row r="910" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A910" s="8" t="s">
-        <v>699</v>
+        <v>3190</v>
       </c>
       <c r="B910" s="5" t="s">
         <v>3176</v>
